--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H2">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I2">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J2">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N2">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P2">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q2">
-        <v>876.230693664117</v>
+        <v>706.2266336925715</v>
       </c>
       <c r="R2">
-        <v>7886.076242977052</v>
+        <v>6356.039703233143</v>
       </c>
       <c r="S2">
-        <v>0.5165010459060101</v>
+        <v>0.5706956956316431</v>
       </c>
       <c r="T2">
-        <v>0.5165010459060102</v>
+        <v>0.5706956956316432</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H3">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I3">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J3">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
         <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P3">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q3">
-        <v>179.524450620625</v>
+        <v>179.7420292242361</v>
       </c>
       <c r="R3">
-        <v>1615.720055585625</v>
+        <v>1617.678263018125</v>
       </c>
       <c r="S3">
-        <v>0.1058220936355358</v>
+        <v>0.1452479947775829</v>
       </c>
       <c r="T3">
-        <v>0.1058220936355358</v>
+        <v>0.1452479947775829</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.899643</v>
+        <v>36.94436433333333</v>
       </c>
       <c r="H4">
-        <v>110.698929</v>
+        <v>110.833093</v>
       </c>
       <c r="I4">
-        <v>0.7238945645409353</v>
+        <v>0.8328964975864823</v>
       </c>
       <c r="J4">
-        <v>0.7238945645409354</v>
+        <v>0.8328964975864824</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N4">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P4">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q4">
-        <v>172.313300987707</v>
+        <v>144.7271951513041</v>
       </c>
       <c r="R4">
-        <v>1550.819708889363</v>
+        <v>1302.544756361737</v>
       </c>
       <c r="S4">
-        <v>0.1015714249993894</v>
+        <v>0.1169528071772562</v>
       </c>
       <c r="T4">
-        <v>0.1015714249993894</v>
+        <v>0.1169528071772562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>10.124457</v>
       </c>
       <c r="I5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J5">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N5">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P5">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q5">
-        <v>80.139528541261</v>
+        <v>64.51287238798967</v>
       </c>
       <c r="R5">
-        <v>721.2557568713489</v>
+        <v>580.6158514919069</v>
       </c>
       <c r="S5">
-        <v>0.0472388728325495</v>
+        <v>0.05213229978619886</v>
       </c>
       <c r="T5">
-        <v>0.0472388728325495</v>
+        <v>0.05213229978619887</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.124457</v>
       </c>
       <c r="I6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J6">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
         <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P6">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q6">
         <v>16.41919752229167</v>
@@ -818,10 +818,10 @@
         <v>147.772777700625</v>
       </c>
       <c r="S6">
-        <v>0.009678424591289009</v>
+        <v>0.01326821292862288</v>
       </c>
       <c r="T6">
-        <v>0.009678424591289009</v>
+        <v>0.01326821292862289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.124457</v>
       </c>
       <c r="I7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="J7">
-        <v>0.06620695843614191</v>
+        <v>0.07608399754092349</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N7">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P7">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q7">
-        <v>15.75967014439767</v>
+        <v>13.22063856902367</v>
       </c>
       <c r="R7">
-        <v>141.837031299579</v>
+        <v>118.985747121213</v>
       </c>
       <c r="S7">
-        <v>0.009289661012303406</v>
+        <v>0.01068348482610173</v>
       </c>
       <c r="T7">
-        <v>0.009289661012303406</v>
+        <v>0.01068348482610173</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H8">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J8">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>23.746319</v>
+        <v>19.11595033333333</v>
       </c>
       <c r="N8">
-        <v>71.238957</v>
+        <v>57.347851</v>
       </c>
       <c r="O8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453416</v>
       </c>
       <c r="P8">
-        <v>0.7135031414879517</v>
+        <v>0.6851940154453418</v>
       </c>
       <c r="Q8">
-        <v>254.0694420567609</v>
+        <v>77.17693460448524</v>
       </c>
       <c r="R8">
-        <v>2286.624978510848</v>
+        <v>694.5924114403671</v>
       </c>
       <c r="S8">
-        <v>0.1497632227493921</v>
+        <v>0.06236602002749959</v>
       </c>
       <c r="T8">
-        <v>0.1497632227493921</v>
+        <v>0.06236602002749961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H9">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J9">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.865208333333333</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N9">
         <v>14.595625</v>
       </c>
       <c r="O9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="P9">
-        <v>0.1461844014571983</v>
+        <v>0.1743890089566637</v>
       </c>
       <c r="Q9">
-        <v>52.05441595979165</v>
+        <v>19.64233317368056</v>
       </c>
       <c r="R9">
-        <v>468.4897436381249</v>
+        <v>176.7809985631251</v>
       </c>
       <c r="S9">
-        <v>0.03068388323037346</v>
+        <v>0.01587280125045791</v>
       </c>
       <c r="T9">
-        <v>0.03068388323037346</v>
+        <v>0.01587280125045791</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.699319</v>
+        <v>4.037305666666668</v>
       </c>
       <c r="H10">
-        <v>32.09795699999999</v>
+        <v>12.111917</v>
       </c>
       <c r="I10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="J10">
-        <v>0.2098984770229228</v>
+        <v>0.09101950487259411</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.669782333333333</v>
+        <v>3.917436333333333</v>
       </c>
       <c r="N10">
-        <v>14.009347</v>
+        <v>11.752309</v>
       </c>
       <c r="O10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979945</v>
       </c>
       <c r="P10">
-        <v>0.1403124570548501</v>
+        <v>0.1404169755979946</v>
       </c>
       <c r="Q10">
-        <v>49.96349084489765</v>
+        <v>15.81588790737256</v>
       </c>
       <c r="R10">
-        <v>449.6714176040789</v>
+        <v>142.342991166353</v>
       </c>
       <c r="S10">
-        <v>0.02945137104315729</v>
+        <v>0.01278068359463659</v>
       </c>
       <c r="T10">
-        <v>0.02945137104315729</v>
+        <v>0.01278068359463659</v>
       </c>
     </row>
   </sheetData>
